--- a/stockwellExample/RawInputData/A-Phase-4.xlsx
+++ b/stockwellExample/RawInputData/A-Phase-4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttcd\Documents\MATLAB\PetriNetSimulate\stockwellExample\RawInputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777D0C2F-77CF-490B-8952-19E86F5266F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FF029F-5BE6-4113-A30B-22B7BA033B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6BF008F-5C6C-4F49-B7F4-2457C7664101}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="E1:AJ35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+      <selection activeCell="AA2" sqref="AA2:AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -540,7 +540,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AB2" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="AC2" s="6">
         <v>401</v>
@@ -577,9 +577,8 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
       <c r="AB3" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="AC3" s="6">
         <v>402</v>
@@ -621,9 +620,8 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
       <c r="AB4" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AC4" s="6">
         <v>403</v>
@@ -665,7 +663,6 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="3"/>
@@ -705,7 +702,6 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="3"/>
@@ -739,7 +735,6 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="3"/>
@@ -773,7 +768,6 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="3"/>
@@ -807,7 +801,6 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="3"/>
@@ -841,7 +834,6 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="3"/>
@@ -875,7 +867,6 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="3"/>
@@ -909,7 +900,6 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="3"/>
@@ -943,7 +933,6 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="3"/>
@@ -977,7 +966,6 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="3"/>
@@ -1011,7 +999,6 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="3"/>
@@ -1045,7 +1032,6 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="3"/>
@@ -1079,7 +1065,6 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="3"/>
@@ -1113,7 +1098,6 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="3"/>
@@ -1147,7 +1131,6 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="3"/>
@@ -1181,7 +1164,6 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="3"/>
@@ -1215,7 +1197,6 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
       <c r="AB21" s="7"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="3"/>
@@ -1249,7 +1230,6 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
       <c r="AB22" s="7"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="3"/>
@@ -1283,7 +1263,6 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
@@ -1317,7 +1296,6 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
@@ -1351,7 +1329,6 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
@@ -1385,7 +1362,6 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
@@ -1419,7 +1395,6 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
@@ -1453,7 +1428,6 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
@@ -1487,7 +1461,6 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
@@ -1591,12 +1564,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007EAC084835D24746A54539AB1A640141" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ebb060845e59801059c2b1bac358d5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db6488ae-1ae9-46d0-aa9c-9ac0f238754f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0cd10c274c4ff223c6b05d03a044ab7d" ns2:_="">
     <xsd:import namespace="db6488ae-1ae9-46d0-aa9c-9ac0f238754f"/>
@@ -1768,6 +1735,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF387451-9C43-4878-8CD8-AC44434AD390}">
   <ds:schemaRefs>
@@ -1777,22 +1750,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5B3618C-B144-4565-9E3E-0F842207522B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="db6488ae-1ae9-46d0-aa9c-9ac0f238754f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5B4A9ED-2FAA-4587-BE02-FA0D132995E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1808,4 +1765,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5B3618C-B144-4565-9E3E-0F842207522B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="db6488ae-1ae9-46d0-aa9c-9ac0f238754f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>